--- a/src/main/java/com/qa/houpermitproject/testdata/CreateProfile.xlsx
+++ b/src/main/java/com/qa/houpermitproject/testdata/CreateProfile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.nath@sierradigitalinc.com\eclipse-workspace\HouPerPro\src\main\java\com\qa\houpermitproject\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DEFF44-E184-4364-B500-7C6A2D287F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB5B0FA-5A72-4B84-B5FB-75CFA2D05C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IndividualProfile" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>Email</t>
   </si>
@@ -79,15 +79,9 @@
     <t>Mr</t>
   </si>
   <si>
-    <t>John</t>
-  </si>
-  <si>
     <t>ACME</t>
   </si>
   <si>
-    <t>123 Main</t>
-  </si>
-  <si>
     <t>Street</t>
   </si>
   <si>
@@ -100,34 +94,34 @@
     <t>kmn@2023</t>
   </si>
   <si>
-    <t>5987412301</t>
-  </si>
-  <si>
-    <t>2587412301</t>
-  </si>
-  <si>
-    <t>1258741230</t>
-  </si>
-  <si>
-    <t>xyz124@gmail.com</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Michal</t>
-  </si>
-  <si>
-    <t>1258741235</t>
-  </si>
-  <si>
-    <t>2587412305</t>
-  </si>
-  <si>
-    <t>5987412305</t>
-  </si>
-  <si>
-    <t>xyz653@gmail.com</t>
+    <t>xyz125@gmail.com</t>
+  </si>
+  <si>
+    <t>john3@gmail.com</t>
+  </si>
+  <si>
+    <t>John3</t>
+  </si>
+  <si>
+    <t>Michal3</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>1236 Main</t>
+  </si>
+  <si>
+    <t>1258741232</t>
+  </si>
+  <si>
+    <t>2587412302</t>
+  </si>
+  <si>
+    <t>5987412302</t>
+  </si>
+  <si>
+    <t>124 Main</t>
   </si>
 </sst>
 </file>
@@ -201,12 +195,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -490,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,54 +554,54 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="J2" s="1">
         <v>77002</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{F940F175-AC4D-428A-B373-FB5456EA32EC}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{2B223AE9-8645-4D81-B256-BCBC873492D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -616,12 +611,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18762D9B-BA87-42F2-A20D-DD79111B6C88}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="8" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -664,47 +660,44 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>27</v>
+      <c r="A2" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="G2" s="1">
         <v>77002</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{341FAA5F-3BFB-4646-BA96-89FA5E7355CB}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>